--- a/Team-Data/2007-08/1-27-2007-08.xlsx
+++ b/Team-Data/2007-08/1-27-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.463</v>
+        <v>0.475</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J2" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
         <v>3.9</v>
@@ -696,49 +763,49 @@
         <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
       <c r="O2" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="P2" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R2" t="n">
         <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V2" t="n">
         <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="n">
         <v>-0.7</v>
@@ -759,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP2" t="n">
         <v>6</v>
@@ -786,19 +853,19 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -807,16 +874,16 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.829</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,10 +933,10 @@
         <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="K3" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L3" t="n">
         <v>7.2</v>
@@ -881,52 +948,52 @@
         <v>0.374</v>
       </c>
       <c r="O3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U3" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
         <v>8.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
         <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -962,16 +1029,16 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
@@ -989,7 +1056,7 @@
         <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>17</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>4</v>
@@ -1138,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>16</v>
@@ -1156,19 +1223,19 @@
         <v>23</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>14</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX4" t="n">
         <v>13</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>28</v>
@@ -1177,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -1212,67 +1279,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.395</v>
+        <v>0.405</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
         <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S5" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U5" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
@@ -1281,34 +1348,34 @@
         <v>21.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.1</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,19 +1384,19 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP5" t="n">
         <v>21</v>
       </c>
-      <c r="AO5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1341,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>15</v>
@@ -1359,13 +1426,13 @@
         <v>14</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
@@ -1421,16 +1488,16 @@
         <v>6.4</v>
       </c>
       <c r="M6" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.722</v>
@@ -1448,7 +1515,7 @@
         <v>19.5</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
@@ -1460,40 +1527,40 @@
         <v>4.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
         <v>97.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1526,19 +1593,19 @@
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY6" t="n">
         <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.698</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
         <v>78.2</v>
@@ -1600,61 +1667,61 @@
         <v>0.47</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P7" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.822</v>
+        <v>0.821</v>
       </c>
       <c r="R7" t="n">
         <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z7" t="n">
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="AC7" t="n">
         <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1666,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
@@ -1684,13 +1751,13 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1699,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>22</v>
@@ -1720,10 +1787,10 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.619</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
@@ -1788,64 +1855,64 @@
         <v>18.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.332</v>
+        <v>0.329</v>
       </c>
       <c r="O8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S8" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T8" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA8" t="n">
         <v>24.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.4</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1854,19 +1921,19 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1890,16 +1957,16 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9" t="n">
         <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -2045,7 +2112,7 @@
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN9" t="n">
         <v>10</v>
@@ -2063,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
         <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J10" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.453</v>
       </c>
       <c r="L10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
@@ -2170,16 +2237,16 @@
         <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
@@ -2188,22 +2255,22 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="AC10" t="n">
         <v>1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>9</v>
@@ -2212,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2233,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>12</v>
@@ -2242,25 +2309,25 @@
         <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.545</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2331,40 +2398,40 @@
         <v>6.6</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N11" t="n">
         <v>0.334</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
         <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.732</v>
       </c>
       <c r="R11" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S11" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T11" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U11" t="n">
         <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W11" t="n">
         <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
@@ -2376,22 +2443,22 @@
         <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
@@ -2403,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
@@ -2418,7 +2485,7 @@
         <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
@@ -2427,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2436,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>12</v>
@@ -2445,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2624,16 +2691,16 @@
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2761,7 +2828,7 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>19</v>
@@ -2788,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="AR13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>7</v>
@@ -2800,10 +2867,10 @@
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -2815,10 +2882,10 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
         <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.643</v>
+        <v>0.659</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P14" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R14" t="n">
         <v>11</v>
@@ -2898,16 +2965,16 @@
         <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
@@ -2916,25 +2983,25 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
@@ -2961,13 +3028,13 @@
         <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2982,19 +3049,19 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3128,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>7</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3164,7 +3231,7 @@
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3173,13 +3240,13 @@
         <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -3304,7 +3371,7 @@
         <v>28</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
@@ -3361,13 +3428,13 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.386</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I17" t="n">
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="O17" t="n">
         <v>16.8</v>
@@ -3438,115 +3505,115 @@
         <v>0.74</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>25</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -3578,91 +3645,91 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.186</v>
+        <v>0.167</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
         <v>0.441</v>
       </c>
       <c r="L18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M18" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.72</v>
+        <v>0.715</v>
       </c>
       <c r="R18" t="n">
         <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="AA18" t="n">
         <v>18.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.4</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3671,16 +3738,16 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
@@ -3689,7 +3756,7 @@
         <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3710,10 +3777,10 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="J19" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K19" t="n">
         <v>0.433</v>
@@ -3793,55 +3860,55 @@
         <v>0.333</v>
       </c>
       <c r="O19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.713</v>
+        <v>0.715</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="AB19" t="n">
         <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,16 +3944,16 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
@@ -3901,13 +3968,13 @@
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>6.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF20" t="n">
         <v>2</v>
@@ -4032,16 +4099,16 @@
         <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4053,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
@@ -4077,13 +4144,13 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M21" t="n">
         <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="O21" t="n">
         <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.715</v>
+        <v>0.713</v>
       </c>
       <c r="R21" t="n">
         <v>12.5</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U21" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="V21" t="n">
         <v>15.4</v>
@@ -4184,31 +4251,31 @@
         <v>6.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>25</v>
@@ -4223,31 +4290,31 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR21" t="n">
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4265,16 +4332,16 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.609</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.465</v>
@@ -4336,40 +4403,40 @@
         <v>24.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.722</v>
+        <v>0.718</v>
       </c>
       <c r="R22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
         <v>42.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
         <v>21.1</v>
@@ -4378,7 +4445,7 @@
         <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC22" t="n">
         <v>3.2</v>
@@ -4387,16 +4454,16 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH22" t="n">
         <v>8</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4420,13 +4487,13 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
@@ -4438,16 +4505,16 @@
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>-3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>14</v>
@@ -4620,19 +4687,19 @@
         <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>19</v>
@@ -4641,7 +4708,7 @@
         <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
         <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>0.711</v>
+        <v>0.705</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="J24" t="n">
-        <v>84.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M24" t="n">
         <v>23.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="O24" t="n">
         <v>17.5</v>
       </c>
       <c r="P24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.787</v>
+        <v>0.784</v>
       </c>
       <c r="R24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="S24" t="n">
         <v>32.2</v>
       </c>
       <c r="T24" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U24" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="V24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
@@ -4733,22 +4800,22 @@
         <v>6.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA24" t="n">
         <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.5</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4817,13 +4884,13 @@
         <v>3</v>
       </c>
       <c r="BA24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
@@ -4870,70 +4937,70 @@
         <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.395</v>
+        <v>0.397</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P25" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R25" t="n">
         <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V25" t="n">
         <v>13.7</v>
       </c>
       <c r="W25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
@@ -4945,13 +5012,13 @@
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4963,10 +5030,10 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>9</v>
@@ -4981,10 +5048,10 @@
         <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -4996,10 +5063,10 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.442</v>
+        <v>0.429</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
@@ -5073,19 +5140,19 @@
         <v>27.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S26" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T26" t="n">
         <v>39.2</v>
       </c>
       <c r="U26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="V26" t="n">
         <v>16.6</v>
@@ -5094,28 +5161,28 @@
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y26" t="n">
         <v>5.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA26" t="n">
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
@@ -5127,7 +5194,7 @@
         <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>27</v>
@@ -5145,19 +5212,19 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>4</v>
       </c>
-      <c r="AP26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>3</v>
-      </c>
       <c r="AR26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS26" t="n">
         <v>25</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
@@ -5306,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5333,7 +5400,7 @@
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="n">
-        <v>0.205</v>
+        <v>0.209</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J28" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.436</v>
@@ -5431,16 +5498,16 @@
         <v>0.333</v>
       </c>
       <c r="O28" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
@@ -5449,46 +5516,46 @@
         <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V28" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
@@ -5506,19 +5573,19 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5530,10 +5597,10 @@
         <v>19</v>
       </c>
       <c r="AV28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5548,7 +5615,7 @@
         <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5721,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5733,7 +5800,7 @@
         <v>14</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.493</v>
@@ -5792,22 +5859,22 @@
         <v>11.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="P30" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T30" t="n">
         <v>40.7</v>
@@ -5816,10 +5883,10 @@
         <v>26</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5828,22 +5895,22 @@
         <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>1</v>
@@ -5870,19 +5937,19 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP30" t="n">
         <v>3</v>
       </c>
-      <c r="AP30" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5909,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
@@ -5944,40 +6011,40 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="n">
         <v>23</v>
       </c>
       <c r="F31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>0.548</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P31" t="n">
         <v>24.2</v>
@@ -5989,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T31" t="n">
         <v>42.5</v>
@@ -6007,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
         <v>19.6</v>
@@ -6016,28 +6083,28 @@
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG31" t="n">
         <v>13</v>
       </c>
-      <c r="AG31" t="n">
-        <v>15</v>
-      </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6046,7 +6113,7 @@
         <v>18</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
@@ -6055,16 +6122,16 @@
         <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>16</v>
@@ -6079,13 +6146,13 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6097,7 +6164,7 @@
         <v>11</v>
       </c>
       <c r="BC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-27-2007-08</t>
+          <t>2008-01-27</t>
         </is>
       </c>
     </row>
